--- a/HW5/results.xlsx
+++ b/HW5/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/afsarabenazir/Dropbox/Fall2024/Computer Architecture/HW/HW5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E40FC2-6B4E-6840-B1BB-AF6129EBEEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E51E80-2C81-154E-B353-95DD8C221D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17120" xr2:uid="{0D8A8D45-522D-1E48-B75D-929B53265B52}"/>
   </bookViews>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3A9949-CCD5-3D4C-8720-0DABF72BC279}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1004,9 +1004,12 @@
       <c r="C28" s="1">
         <v>74</v>
       </c>
+      <c r="F28" s="1">
+        <v>62</v>
+      </c>
       <c r="G28" s="1">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>67.734776887504395</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1019,9 +1022,12 @@
       <c r="C29" s="1">
         <v>106</v>
       </c>
+      <c r="F29" s="1">
+        <v>72</v>
+      </c>
       <c r="G29" s="1">
         <f t="shared" si="2"/>
-        <v>106</v>
+        <v>87.36131867136622</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1034,9 +1040,12 @@
       <c r="C30" s="1">
         <v>125</v>
       </c>
+      <c r="F30" s="1">
+        <v>87</v>
+      </c>
       <c r="G30" s="1">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>104.28326807307106</v>
       </c>
     </row>
     <row r="31" spans="1:7">
